--- a/output/frat/depth_1/templates/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_1/templates/frat_3_conceptnet_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/depth_1/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB529477-40D7-8D4F-B83C-218710152062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2F77E-C632-1948-8EDA-CA04D547958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,31 +262,31 @@
     <t>finger</t>
   </si>
   <si>
-    <t>statement, answer</t>
-  </si>
-  <si>
-    <t>flower, plant</t>
-  </si>
-  <si>
-    <t>mathematics, geometry, pure_mathematics</t>
-  </si>
-  <si>
-    <t>star, celestial_body</t>
+    <t>answer, statement</t>
+  </si>
+  <si>
+    <t>plant, flower</t>
+  </si>
+  <si>
+    <t>geometry, pure_mathematics, mathematics</t>
+  </si>
+  <si>
+    <t>celestial_body, star</t>
   </si>
   <si>
     <t>water, fish</t>
   </si>
   <si>
-    <t>ground, hill, down</t>
+    <t>down, hill, ground</t>
   </si>
   <si>
     <t>run</t>
   </si>
   <si>
-    <t>seat, furniture, sitting, chair</t>
-  </si>
-  <si>
-    <t>lab, laboratory</t>
+    <t>sitting, furniture, seat, chair</t>
+  </si>
+  <si>
+    <t>laboratory, lab</t>
   </si>
   <si>
     <t>religious</t>
@@ -298,40 +298,40 @@
     <t>police</t>
   </si>
   <si>
-    <t>question is "desires, related_to, antonym, distinct_from" to answer | reply is "synonym, related_to, is_a, antonym" to answer | solution is "related_to, synonym" to answer</t>
-  </si>
-  <si>
-    <t>antlers is "related_to" to deer | doe is "related_to, is_a" to deer | fawn is "related_to, is_a" to deer</t>
-  </si>
-  <si>
-    <t>bud is "related_to, is_a" to flower | dandelion is "related_to, is_a" to flower | petals is "related_to" to flower</t>
-  </si>
-  <si>
-    <t>colt is "related_to, is_a" to horse | mare is "related_to, is_a, part_of" to horse | unicorn is "related_to" to horse</t>
-  </si>
-  <si>
-    <t>astronomy is "has_context, related_to" to star | moon is "related_to, distinct_from" to star | twinkle is "related_to" to star</t>
-  </si>
-  <si>
-    <t>bait is "related_to" to fish | pond is "at_location, used_for, related_to" to fish | tuna is "is_a, related_to" to fish</t>
-  </si>
-  <si>
-    <t>gravity is "related_to" to down | low is "related_to" to down | up is "distinct_from, antonym, related_to" to down</t>
-  </si>
-  <si>
-    <t>brawl is "related_to, is_a" to fight | debate is "related_to" to fight | soldier is "desires, related_to, used_for" to fight</t>
-  </si>
-  <si>
-    <t>finger is "at_location, related_to, part_of" to hand | glove is "related_to" to hand | palm is "part_of, related_to" to hand</t>
-  </si>
-  <si>
-    <t>discuss is "related_to" to talk | gossip is "related_to, is_a" to talk | telephone is "related_to" to talk</t>
-  </si>
-  <si>
-    <t>bench is "distinct_from, related_to" to chair | sofa is "is_a, distinct_from, related_to" to chair | stool is "is_a, synonym, antonym, related_to, etymologically_related_to" to chair</t>
-  </si>
-  <si>
-    <t>hand is "related_to, at_location, part_of" to finger | toe is "related_to, synonym, antonym, distinct_from, similar_to" to finger | trigger is "related_to" to finger</t>
+    <t>question is "desires,  antonym, distinct_from" to answer | reply is "antonym,  synonym, " to answer | solution is " synonym" to answer</t>
+  </si>
+  <si>
+    <t>antlers is "" to deer | doe is " " to deer | fawn is " " to deer</t>
+  </si>
+  <si>
+    <t>bud is " " to flower | dandelion is " " to flower | petals is "" to flower</t>
+  </si>
+  <si>
+    <t>colt is " " to horse | mare is "  part_of" to horse | unicorn is "" to horse</t>
+  </si>
+  <si>
+    <t>astronomy is " has_context" to star | moon is " distinct_from" to star | twinkle is "" to star</t>
+  </si>
+  <si>
+    <t>bait is "" to fish | pond is "used_for,  at_location" to fish | tuna is " " to fish</t>
+  </si>
+  <si>
+    <t>gravity is "" to down | low is "" to down | up is " antonym, distinct_from" to down</t>
+  </si>
+  <si>
+    <t>brawl is " " to fight | debate is "" to fight | soldier is "desires,  used_for" to fight</t>
+  </si>
+  <si>
+    <t>finger is "at_location,  part_of" to hand | glove is "" to hand | palm is " part_of" to hand</t>
+  </si>
+  <si>
+    <t>discuss is "" to talk | gossip is " " to talk | telephone is "" to talk</t>
+  </si>
+  <si>
+    <t>bench is "distinct_from, " to chair | sofa is "distinct_from,  " to chair | stool is "antonym,  synonym,  etymologically_" to chair</t>
+  </si>
+  <si>
+    <t>hand is " at_location, part_of" to finger | toe is "antonym, distinct_from, synonym, similar_to, " to finger | trigger is "" to finger</t>
   </si>
   <si>
     <t>question is like answer | answer is like question | question is related to answer | answer is related to question | reply is like answer | answer is like reply | reply is related to answer | answer is related to reply | solution is like answer | answer is like solution | solution is related to answer | answer is related to solution</t>
@@ -867,20 +867,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="10" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">

--- a/output/frat/depth_1/templates/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_1/templates/frat_3_conceptnet_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/depth_1/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2F77E-C632-1948-8EDA-CA04D547958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63509BD0-97F5-BD4C-B2BA-F4765F32D72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,6 +871,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" customWidth="1"/>
